--- a/service/TestService/config/xlsx/文字id.xlsx
+++ b/service/TestService/config/xlsx/文字id.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\CrystalNetGithub\CrystalNet\service\TestService\config\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{284F2C49-F216-42B0-834D-5F85731548FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94EDDDAF-1212-4549-9A6E-76A177A3397E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="468" yWindow="1488" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="文字id|WordId" sheetId="1" r:id="rId1"/>
@@ -432,14 +432,14 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/service/TestService/config/xlsx/文字id.xlsx
+++ b/service/TestService/config/xlsx/文字id.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\CrystalNetGithub\CrystalNet\service\TestService\config\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94EDDDAF-1212-4549-9A6E-76A177A3397E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019954E8-87A8-4EE4-837E-7849EA98339C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="468" yWindow="1488" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -103,7 +103,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"{}申请借书, 用户id:{}, 订单号:{},请即时处理出库."</t>
+    <t>"{0}申请借书, 用户id:{1}, 订单号:{2},请即时处理出库."</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -432,7 +432,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/service/TestService/config/xlsx/文字id.xlsx
+++ b/service/TestService/config/xlsx/文字id.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\CrystalNetGithub\CrystalNet\service\TestService\config\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workplace\mine\CrystalNet\CrystalNet\service\TestService\config\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019954E8-87A8-4EE4-837E-7849EA98339C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDE2DB4-C782-4FE6-9D93-546F2F1401E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="468" yWindow="1488" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="文字id|WordId" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>C|S</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,6 +104,22 @@
   </si>
   <si>
     <t>"{0}申请借书, 用户id:{1}, 订单号:{2},请即时处理出库."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"CANCEL_ORDER_TITLE"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"取消订单通知"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"CANCEL_ORDER_CONTENT"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"订单号:{0}, 订单所属用户id:{1}, 昵称:{2}, 操作人id:{3}, 操作人昵称:{4}, 取消原因:{5}"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -429,7 +445,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
@@ -439,7 +455,7 @@
   <cols>
     <col min="1" max="1" width="34.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="77.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -530,6 +546,22 @@
         <v>19</v>
       </c>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/service/TestService/config/xlsx/文字id.xlsx
+++ b/service/TestService/config/xlsx/文字id.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workplace\mine\CrystalNet\CrystalNet\service\TestService\config\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\CrystalNetGithub\CrystalNet\service\TestService\config\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDE2DB4-C782-4FE6-9D93-546F2F1401E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83BE5891-45E5-4E56-97FE-4CE4CE5C7727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="文字id|WordId" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>C|S</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,6 +120,22 @@
   </si>
   <si>
     <t>"订单号:{0}, 订单所属用户id:{1}, 昵称:{2}, 操作人id:{3}, 操作人昵称:{4}, 取消原因:{5}"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"RETURN_BACK_BOOK_TITLE"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"RETURN_BACK_BOOK_CONTENT"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"还书操作, 操作人id:{0},操作人昵称:{1}, 订单号:{2}, 借书人id:{3}, 借书人昵称:{4}, 归还的书:\n{5},\n 是否已还全部:{6},剩余未归还图书是否有逾期:{7}."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"还书通知"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -445,17 +461,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="77.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="139.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -562,6 +578,22 @@
         <v>23</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/service/TestService/config/xlsx/文字id.xlsx
+++ b/service/TestService/config/xlsx/文字id.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\CrystalNetGithub\CrystalNet\service\TestService\config\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83BE5891-45E5-4E56-97FE-4CE4CE5C7727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0666EDD-6291-44BD-BBC1-0FB5CAE1EC95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="76">
   <si>
     <t>C|S</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,6 +136,198 @@
   </si>
   <si>
     <t>"还书通知"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"JOIN_LIBRARY_LOG_TITLE"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"加入图书馆成为受限制成员"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"JOIN_LIBRARY_LOG_CONTENT"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"{0}加入图书馆, 用户id:{1}"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"CREATE_LIBRARY_TITLE"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"创建图书馆"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"CREATE_LIBRARY_CONTENT"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"【{0}】创建图书馆, 用户id:{1}"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"QUIT_LIBRARY_LOG_TITLE"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"退出图书馆"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"QUIT_LIBRARY_LOG_CONTENT"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"【{0}】退出了图书馆, 用户id:{1}"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"TRANSFER_LIBRARY_LOG_TITLE"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"转让图书馆"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"TRANSFER_LIBRARY_LOG_CONTENT"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"原图书馆馆长:【{0}】,用户id:{1}, 将图书馆转让给用户:【{2}】,用户id:{3}"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"MODIFY_MEMBER_LOG_TITLE"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"修改成员信息"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"MODIFY_MEMBER_LOG_CONTENT"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"操作人:【{0}】,id:{1} 角色:{2}({3}), 修改用户信息, 被修改用户id:{4},昵称:【{5}】 角色变更:{6}({7})=&gt;{8}({9}),手机变更:{10}=&gt;{11}"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ENTER_BOOK_LOG_TITLE"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"录书"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ENTER_BOOK_LOG_CONTENT"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"CREATE_BORROW_ORDER_TITLE"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"创建借书订单"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"CREATE_BORROW_ORDER_CONTENT"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"用户:【{0}】, id:{1},角色:{2}({3}), 创建借书订单, 订单id:{4}, 订单状态:{5}({6}) 借图书列表:\n{7}"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"OUTSTORE_LOG_TITLE"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"借书订单出库"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"OUTSTORE_LOG_CONTENT"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"取消订单"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"CANCEL_ORDER_WAIT_USER_RECEIVE_TIMEOUT_CONTENT"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"订单等待用户领取超时取消, 订单号:{0}, 待领取用户id:{1}"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"CANCEL_ORDER_LOG_TITLE"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"CANCEL_ORDER_BY_MANAGER_CONTENT"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"管理员取消订单, 管理员用户id:{0},昵称:【{1}】, 订单号:{2}, 订单状态:{3}({4}) 借书用户id:{5}, 备注:{6}"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"CANCEL_ORDER_BY_SELF_CONTENT"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"用户主动取消订单, 用户id:{0},昵称:【{1}】, 订单号:{2}, 订单状态:{3}({4}), 备注:{5}"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"USER_GET_BOOK_TITLE"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"用户领书"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"USER_GET_BOOK_CONTENT"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"用户【{0}】领书,用户id:{1}, 订单号:{2},订单状态:{3}({4})"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"操作人id:{0}, 昵称:【{1}】 [录书] 图书id:{2}, ISBN:{3}, 书名:【{4}】=&gt;【{5}】, 库存:{6}=&gt;{7}, 价格:{8}.{9}=&gt;{10}.{11}(单位:元)"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"操作人:【{0}】,id:{1}, 订单号:{2},借书用户id:{3},等待用户领书"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"OUTSTORE_TITLE"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"订单出库通知"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"OUTSTORE_CONTENT"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"订单{0}已经出库，请即时领取"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -461,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -594,6 +786,198 @@
         <v>26</v>
       </c>
     </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/service/TestService/config/xlsx/文字id.xlsx
+++ b/service/TestService/config/xlsx/文字id.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\CrystalNetGithub\CrystalNet\service\TestService\config\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0666EDD-6291-44BD-BBC1-0FB5CAE1EC95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9121E8-8D8E-405F-813D-629CEA3EFB15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -327,7 +327,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"订单{0}已经出库，请即时领取"</t>
+    <t>"{0}的订单{1}已经出库，请即时领取，超时将自动取消订单."</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
